--- a/biology/Zoologie/Fusinus_albacarinoides/Fusinus_albacarinoides.xlsx
+++ b/biology/Zoologie/Fusinus_albacarinoides/Fusinus_albacarinoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fusinus albacarinoides est une espèce de mollusques gastéropodes marins de la famille des Fasciolariidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Fusinus albacarinoides a été décrite en 2009 par Roland Hadorn (d), Carlos M. L. Afonso (d) et Emilio Rolán-Alvarez (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Fusinus albacarinoides a été décrite en 2009 par Roland Hadorn (d), Carlos M. L. Afonso (d) et Emilio Rolán-Alvarez (d),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce n'est connue pour l'instant que des côtes portugaises au large de l'Algarve à une distance comprise entre 1,6 et 4,0 km de la côte et à des profondeurs supérieures à 14 m[2]. Cette espèce est toujours associée aux fonds rocheux[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce n'est connue pour l'instant que des côtes portugaises au large de l'Algarve à une distance comprise entre 1,6 et 4,0 km de la côte et à des profondeurs supérieures à 14 m. Cette espèce est toujours associée aux fonds rocheux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La coquille de Fusinus albacarinoides mesure jusqu'à 22 mm de longueur et présente une forme allongée[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coquille de Fusinus albacarinoides mesure jusqu'à 22 mm de longueur et présente une forme allongée. 
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, albacarinoides, du latin albus, « blanc », et carnina, « quille », et ce en référence au fait que « la bande périphérique blanche le long de la coque rappelle l'eau écumante blanche du sillage derrière un navire en mouvement »[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, albacarinoides, du latin albus, « blanc », et carnina, « quille », et ce en référence au fait que « la bande périphérique blanche le long de la coque rappelle l'eau écumante blanche du sillage derrière un navire en mouvement ».
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Roland Hadorn, Carlos M. L. Afonso et Emilio Rolán, « A new Fusinus (Gastropoda: Fasciolariidae) from the Algarve, south coast of Portugal », Iberus, Barcelone, vol. 27, no 1,‎ 30 juin 2009, p. 119-129 (ISSN 0212-3010, OCLC 10907884, DOI 10.5281/ZENODO.4543979, lire en ligne)</t>
         </is>
